--- a/Data/EC/NIT-8301305260.xlsx
+++ b/Data/EC/NIT-8301305260.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7E853DFA-8254-4D2B-96B9-86BA7FF8F806}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A3B344B5-C4DA-4964-85D8-B47206527175}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{D90A60B3-3B71-40EC-BD67-485D2F4C8B5B}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{52655DA4-74A0-43EE-9627-F2103426C8F5}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -71,22 +71,22 @@
     <t>GUSTAVO ALEJANDRO JIMENEZ ALVAREZ</t>
   </si>
   <si>
+    <t>1807</t>
+  </si>
+  <si>
+    <t>1806</t>
+  </si>
+  <si>
+    <t>1805</t>
+  </si>
+  <si>
+    <t>1804</t>
+  </si>
+  <si>
+    <t>1803</t>
+  </si>
+  <si>
     <t>1802</t>
-  </si>
-  <si>
-    <t>1803</t>
-  </si>
-  <si>
-    <t>1804</t>
-  </si>
-  <si>
-    <t>1805</t>
-  </si>
-  <si>
-    <t>1806</t>
-  </si>
-  <si>
-    <t>1807</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -500,7 +500,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A127F041-4B6C-D93B-C6FA-186E3698A85A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{53AC4931-A62B-3375-0A87-073295820DBC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -851,7 +851,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64D4C078-5DFA-44A6-A7ED-E1BBA7E38C82}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BC5DD7D-F9AF-444A-975A-E26FC3DD9DA4}">
   <dimension ref="B2:J27"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
